--- a/Descargas/R15_4º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Agosto.xlsx
+++ b/Descargas/R15_4º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Agosto.xlsx
@@ -331,7 +331,7 @@
         </is>
       </c>
       <c r="B13" s="65">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="B74" s="65">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B81" s="65">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
